--- a/OneRoster/data.xlsx
+++ b/OneRoster/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="13620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34536" windowHeight="13620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="1510">
   <si>
     <t>sourcedId</t>
   </si>
@@ -4495,6 +4495,66 @@
   </si>
   <si>
     <t>Example: 2013-03-31</t>
+  </si>
+  <si>
+    <t>2012-04-23T18:25:43.511Z</t>
+  </si>
+  <si>
+    <t>Link to academicSessioni.e. the AcademicSession 'sourcedId'.</t>
+  </si>
+  <si>
+    <t>For example: CHEM101</t>
+  </si>
+  <si>
+    <t>This is a human readable string. Example: "chemistry".</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>Link to org i.e. the 'sourcedId' of the org.</t>
+  </si>
+  <si>
+    <t>Link to resources if applicable i.e. the 'sourcedIds'.</t>
+  </si>
+  <si>
+    <t>school_year</t>
+  </si>
+  <si>
+    <t>course_code</t>
+  </si>
+  <si>
+    <t>subject_codes</t>
+  </si>
+  <si>
+    <t>class_code</t>
+  </si>
+  <si>
+    <t>class_type</t>
+  </si>
+  <si>
+    <t>For example: Spring Term</t>
+  </si>
+  <si>
+    <t>For example: 2012-01-01</t>
+  </si>
+  <si>
+    <t>For example: 2012-04-30</t>
+  </si>
+  <si>
+    <t>See subsection 4.13.7 for the enumeration list.</t>
+  </si>
+  <si>
+    <t>Link to parent AcademicSession i.e. an AcademicSession 'sourcedId'.</t>
+  </si>
+  <si>
+    <t>Links to children AcademicSession i.e. an AcademicSession 'sourcedId'.</t>
+  </si>
+  <si>
+    <t>The school year for the academic session. This year should include the school year end e.g. 2014.</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
 </sst>
 </file>
@@ -14488,8 +14548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23744,2555 +23804,3391 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="6"/>
+    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43468.17021984954</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1001</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43469.17021984954</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1002</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43470.17021984954</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2056</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43471.17021984954</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2052</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43472.17021984954</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1004</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43473.17021984954</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4161</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43474.17021984954</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4101</v>
+      </c>
+      <c r="J8" s="6">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43475.17021984954</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4052</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43476.17021984954</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4052</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43477.17021984954</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1003</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
         <v>1295</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43478.17021984954</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G12" s="6">
+        <v>52036</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1403</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43479.17021984954</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G13" s="6">
+        <v>53236</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
         <v>1296</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43480.17021984954</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G14" s="6">
+        <v>54436</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="P14" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43481.17021984954</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G15" s="6">
+        <v>54437</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
         <v>1298</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P15" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43482.17021984954</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G16" s="6">
+        <v>54438</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1494</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43483.17021984954</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G17" s="6">
+        <v>51035</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F2">
-        <v>1001</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F3">
-        <v>1002</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F4">
-        <v>2056</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F5">
-        <v>2052</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1309</v>
-      </c>
-      <c r="F6">
-        <v>1004</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F7">
-        <v>4161</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F8">
-        <v>4101</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F9">
-        <v>4052</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F10">
-        <v>4052</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F11">
-        <v>1003</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F12">
-        <v>52036</v>
-      </c>
-      <c r="H12">
+      <c r="P17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43484.17021984954</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G18" s="6">
+        <v>51034</v>
+      </c>
+      <c r="J18" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F13">
-        <v>53236</v>
-      </c>
-      <c r="H13">
+      <c r="Q18" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43485.17021984954</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G19" s="6">
+        <v>51036</v>
+      </c>
+      <c r="J19" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F14">
-        <v>54436</v>
-      </c>
-      <c r="H14">
+      <c r="O19" t="s">
+        <v>1441</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43486.17021984954</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G20" s="6">
+        <v>53237</v>
+      </c>
+      <c r="J20" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F15">
-        <v>54437</v>
-      </c>
-      <c r="H15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43487.17021984954</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G21" s="6">
+        <v>53238</v>
+      </c>
+      <c r="J21" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F16">
-        <v>54438</v>
-      </c>
-      <c r="H16">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43488.17021984954</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G22" s="6">
+        <v>52037</v>
+      </c>
+      <c r="J22" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F17">
-        <v>51035</v>
-      </c>
-      <c r="H17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43489.17021984954</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G23" s="6">
+        <v>52038</v>
+      </c>
+      <c r="J23" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F18">
-        <v>51034</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1335</v>
-      </c>
-      <c r="F19">
-        <v>51036</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F20">
-        <v>53237</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F21">
-        <v>53238</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1341</v>
-      </c>
-      <c r="F22">
-        <v>52037</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F23">
-        <v>52038</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>1344</v>
       </c>
-      <c r="E24" t="s">
+      <c r="B24" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43490.17021984954</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>1345</v>
       </c>
-      <c r="F24">
+      <c r="G24" s="6">
         <v>51031</v>
       </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="J24" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="E25" t="s">
+      <c r="B25" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43491.17021984954</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>1347</v>
       </c>
-      <c r="F25">
+      <c r="G25" s="6">
         <v>51032</v>
       </c>
-      <c r="H25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="J25" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="E26" t="s">
+      <c r="B26" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43492.17021984954</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>1349</v>
       </c>
-      <c r="F26">
+      <c r="G26" s="6">
         <v>51033</v>
       </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="J26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>1350</v>
       </c>
-      <c r="E27" t="s">
+      <c r="B27" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43493.17021984954</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>1351</v>
       </c>
-      <c r="F27">
+      <c r="G27" s="6">
         <v>53233</v>
       </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="J27" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>1352</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43494.17021984954</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>1353</v>
       </c>
-      <c r="F28">
+      <c r="G28" s="6">
         <v>53234</v>
       </c>
-      <c r="H28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="J28" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="E29" t="s">
+      <c r="B29" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43495.17021984954</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="F29">
+      <c r="G29" s="6">
         <v>52033</v>
       </c>
-      <c r="H29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="J29" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B30" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43496.17021984954</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="F30">
+      <c r="G30" s="6">
         <v>52035</v>
       </c>
-      <c r="H30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="J30" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>1358</v>
       </c>
-      <c r="E31" t="s">
+      <c r="B31" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43497.17021984954</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>1359</v>
       </c>
-      <c r="F31">
+      <c r="G31" s="6">
         <v>53235</v>
       </c>
-      <c r="H31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="J31" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="E32" t="s">
+      <c r="B32" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43498.17021984954</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>1361</v>
       </c>
-      <c r="F32">
+      <c r="G32" s="6">
         <v>52034</v>
       </c>
-      <c r="H32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="J32" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>1362</v>
       </c>
-      <c r="E33" t="s">
+      <c r="B33" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43499.17021984954</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>1363</v>
       </c>
-      <c r="F33">
+      <c r="G33" s="6">
         <v>51028</v>
       </c>
-      <c r="H33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="J33" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>1364</v>
       </c>
-      <c r="E34" t="s">
+      <c r="B34" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43500.17021984954</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>1365</v>
       </c>
-      <c r="F34">
+      <c r="G34" s="6">
         <v>52030</v>
       </c>
-      <c r="H34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="J34" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>1366</v>
       </c>
-      <c r="E35" t="s">
+      <c r="B35" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43501.17021984954</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>1367</v>
       </c>
-      <c r="F35">
+      <c r="G35" s="6">
         <v>53230</v>
       </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="J35" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>1368</v>
       </c>
-      <c r="E36" t="s">
+      <c r="B36" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43502.17021984954</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>1369</v>
       </c>
-      <c r="F36">
+      <c r="G36" s="6">
         <v>51029</v>
       </c>
-      <c r="H36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="J36" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>1370</v>
       </c>
-      <c r="E37" t="s">
+      <c r="B37" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43503.17021984954</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>1371</v>
       </c>
-      <c r="F37">
+      <c r="G37" s="6">
         <v>51030</v>
       </c>
-      <c r="H37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="J37" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="E38" t="s">
+      <c r="B38" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43504.17021984954</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>1373</v>
       </c>
-      <c r="F38">
+      <c r="G38" s="6">
         <v>52031</v>
       </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="J38" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="E39" t="s">
+      <c r="B39" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43505.17021984954</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>1375</v>
       </c>
-      <c r="F39">
+      <c r="G39" s="6">
         <v>52032</v>
       </c>
-      <c r="H39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="J39" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>1376</v>
       </c>
-      <c r="E40" t="s">
+      <c r="B40" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43506.17021984954</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>1377</v>
       </c>
-      <c r="F40">
+      <c r="G40" s="6">
         <v>53231</v>
       </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="J40" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>1378</v>
       </c>
-      <c r="E41" t="s">
+      <c r="B41" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43507.17021984954</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>1379</v>
       </c>
-      <c r="F41">
+      <c r="G41" s="6">
         <v>53232</v>
       </c>
-      <c r="H41">
+      <c r="J41" s="6">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:T22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="37.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="8.88671875" style="3"/>
+    <col min="21" max="21" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>31763</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43470.17021984954</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H2" s="3">
+        <v>305</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>31764</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43471.17021984954</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H3" s="3">
+        <v>305</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>31777</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43472.17021984954</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H4" s="3">
+        <v>211</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>31778</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43473.17021984954</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H5" s="3">
+        <v>211</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>31785</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43474.17021984954</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H6" s="3">
+        <v>302</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O6" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>31786</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43475.17021984954</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H7" s="3">
+        <v>302</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>31815</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43476.17021984954</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H8" s="3">
+        <v>303</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>31825</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43477.17021984954</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H9" s="3">
+        <v>111</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>31826</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43478.17021984954</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H10" s="3">
+        <v>111</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>31909</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43479.17021984954</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H11" s="3">
+        <v>308</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O11" s="3">
+        <v>6</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>31910</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43480.17021984954</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H12" s="3">
+        <v>308</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>31911</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43481.17021984954</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H13" s="3">
+        <v>308</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="J1" t="s">
-        <v>984</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="V13" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>31915</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43482.17021984954</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H14" s="3">
+        <v>101</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>1298</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V14" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>31917</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43483.17021984954</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H15" s="3">
+        <v>101</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>31918</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43484.17021984954</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H16" s="3">
+        <v>101</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O16" s="3">
+        <v>7</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>31931</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43485.17021984954</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H17" s="3">
+        <v>208</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>31932</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43486.17021984954</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H18" s="3">
+        <v>208</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V18" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>31939</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43487.17021984954</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H19" s="3">
+        <v>108</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>31940</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43488.17021984954</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H20" s="3">
+        <v>108</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O20" s="3">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>31763</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="V20" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>32072</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43489.17021984954</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="I2">
-        <v>305</v>
-      </c>
-      <c r="J2">
+      <c r="H21" s="3">
+        <v>302</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L21" s="3">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M21" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>31764</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="O21" s="3">
+        <v>9</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>32073</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43490.17021984954</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="I3">
-        <v>305</v>
-      </c>
-      <c r="J3">
+      <c r="H22" s="3">
+        <v>302</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L22" s="3">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M22" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="N3">
+      <c r="O22" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>31777</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1334</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="U22" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>32074</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43491.17021984954</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="I4">
+      <c r="H23" s="3">
+        <v>303</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O23" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>32522</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43492.17021984954</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H24" s="3">
+        <v>204</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>32707</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43493.17021984954</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H25" s="3">
+        <v>322</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>32708</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43494.17021984954</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H26" s="3">
+        <v>608</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>32834</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43495.17021984954</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H27" s="3">
+        <v>227</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>32835</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43496.17021984954</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H28" s="3">
+        <v>702</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>32836</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43497.17021984954</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H29" s="3">
+        <v>701</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>32837</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43498.17021984954</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H30" s="3">
+        <v>701</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>32855</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43499.17021984954</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H31" s="3">
+        <v>702</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>32856</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43500.17021984954</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H32" s="3">
+        <v>702</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O32" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32860</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43501.17021984954</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H33" s="3">
+        <v>228</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O33" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33506</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43502.17021984954</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H34" s="3">
+        <v>204</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L34" s="3">
+        <v>7</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>33517</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43503.17021984954</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H35" s="3">
+        <v>203</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L35" s="3">
+        <v>7</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>33518</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43504.17021984954</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H36" s="3">
+        <v>201</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L36" s="3">
+        <v>7</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>33526</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43505.17021984954</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H37" s="3">
+        <v>200</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L37" s="3">
+        <v>7</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>33527</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43506.17021984954</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H38" s="3">
+        <v>306</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L38" s="3">
+        <v>7</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>33528</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43507.17021984954</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H39" s="3">
+        <v>312</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L39" s="3">
+        <v>7</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>33532</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43508.17021984954</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H40" s="3">
+        <v>306</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L40" s="3">
+        <v>7</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>33533</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43509.17021984954</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H41" s="3">
+        <v>312</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L41" s="3">
+        <v>7</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>33536</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43510.17021984954</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H42" s="3">
+        <v>201</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L42" s="3">
+        <v>7</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>33539</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43511.17021984954</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H43" s="3">
+        <v>212</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L43" s="3">
+        <v>7</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>33540</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43512.17021984954</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H44" s="3">
+        <v>206</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L44" s="3">
+        <v>7</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>33544</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43513.17021984954</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H45" s="3">
+        <v>110</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L45" s="3">
+        <v>7</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>33545</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43514.17021984954</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H46" s="3">
+        <v>108</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L46" s="3">
+        <v>7</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>33546</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43515.17021984954</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H47" s="3">
         <v>211</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K47" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L47" s="3">
+        <v>7</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>31778</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>33547</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43516.17021984954</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="I5">
+      <c r="H48" s="3">
+        <v>210</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L48" s="3">
+        <v>7</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>33548</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43517.17021984954</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H49" s="3">
+        <v>107</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L49" s="3">
+        <v>7</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>33549</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43518.17021984954</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H50" s="3">
+        <v>100</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L50" s="3">
+        <v>7</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>33551</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43519.17021984954</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H51" s="3">
+        <v>107</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L51" s="3">
+        <v>7</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>33553</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43520.17021984954</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H52" s="3">
+        <v>110</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L52" s="3">
+        <v>7</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>33554</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43521.17021984954</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H53" s="3">
+        <v>108</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L53" s="3">
+        <v>7</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>33555</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43522.17021984954</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H54" s="3">
+        <v>210</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L54" s="3">
+        <v>7</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>33556</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43523.17021984954</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H55" s="3">
         <v>211</v>
       </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="K55" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L55" s="3">
+        <v>7</v>
+      </c>
+      <c r="M55" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="T5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>31785</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>33558</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43524.17021984954</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="I6">
-        <v>302</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="H56" s="3">
+        <v>100</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L56" s="3">
+        <v>7</v>
+      </c>
+      <c r="M56" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="N6">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>33559</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43525.17021984954</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H57" s="3">
+        <v>209</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L57" s="3">
+        <v>7</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>33560</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C58" s="4">
+        <v>43526.17021984954</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H58" s="3">
+        <v>212</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L58" s="3">
+        <v>7</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>33561</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C59" s="4">
+        <v>43527.17021984954</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H59" s="3">
+        <v>212</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L59" s="3">
+        <v>7</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>33644</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C60" s="4">
+        <v>43528.17021984954</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H60" s="3">
+        <v>210</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L60" s="3">
+        <v>7</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>33645</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C61" s="4">
+        <v>43529.17021984954</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H61" s="3">
+        <v>211</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L61" s="3">
+        <v>7</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>33646</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C62" s="4">
+        <v>43530.17021984954</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H62" s="3">
+        <v>110</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L62" s="3">
+        <v>7</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>33647</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C63" s="4">
+        <v>43531.17021984954</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H63" s="3">
+        <v>108</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L63" s="3">
+        <v>7</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>33649</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C64" s="4">
+        <v>43532.17021984954</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H64" s="3">
+        <v>109</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L64" s="3">
+        <v>7</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>33650</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C65" s="4">
+        <v>43533.17021984954</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H65" s="3">
+        <v>100</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L65" s="3">
+        <v>7</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>33655</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C66" s="4">
+        <v>43534.17021984954</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H66" s="3">
+        <v>306</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L66" s="3">
+        <v>7</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>33656</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C67" s="4">
+        <v>43535.17021984954</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H67" s="3">
+        <v>312</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L67" s="3">
+        <v>7</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>33680</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C68" s="4">
+        <v>43536.17021984954</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H68" s="3">
+        <v>206</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L68" s="3">
+        <v>7</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>33681</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C69" s="4">
+        <v>43537.17021984954</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H69" s="3">
+        <v>202</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L69" s="3">
+        <v>7</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>34734</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C70" s="4">
+        <v>43538.17021984954</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="L70" s="3">
         <v>2</v>
       </c>
-      <c r="T6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>31786</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="M70" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>34744</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C71" s="4">
+        <v>43539.17021984954</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="I7">
-        <v>302</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="K71" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L71" s="3">
+        <v>2</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>1388</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>34745</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C72" s="4">
+        <v>43540.17021984954</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L72" s="3">
         <v>2</v>
       </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>31815</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="M72" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>34747</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C73" s="4">
+        <v>43541.17021984954</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="I8">
-        <v>303</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N8">
+      <c r="K73" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="L73" s="3">
         <v>2</v>
       </c>
-      <c r="T8" t="s">
-        <v>1422</v>
-      </c>
-      <c r="U8" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>31825</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1330</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I9">
-        <v>111</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1295</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>31826</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1330</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I10">
-        <v>111</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="T10" t="s">
-        <v>1381</v>
-      </c>
-      <c r="U10" t="s">
-        <v>1423</v>
-      </c>
-      <c r="V10" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>31909</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I11">
-        <v>308</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="T11" t="s">
-        <v>1382</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>31910</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1341</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I12">
-        <v>308</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="T12" t="s">
-        <v>1383</v>
-      </c>
-      <c r="U12" t="s">
-        <v>1423</v>
-      </c>
-      <c r="V12" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>31911</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1341</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I13">
-        <v>308</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="T13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U13" t="s">
-        <v>1428</v>
-      </c>
-      <c r="V13" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>31915</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I14">
-        <v>101</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="T14" t="s">
-        <v>1298</v>
-      </c>
-      <c r="U14" t="s">
-        <v>1428</v>
-      </c>
-      <c r="V14" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>31917</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1326</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I15">
-        <v>101</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="T15" t="s">
-        <v>1431</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>31918</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1326</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I16">
-        <v>101</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N16">
-        <v>7</v>
-      </c>
-      <c r="T16" t="s">
-        <v>980</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>31931</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I17">
-        <v>208</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="T17" t="s">
-        <v>1434</v>
-      </c>
-      <c r="U17" t="s">
-        <v>1435</v>
-      </c>
-      <c r="V17" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>31932</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I18">
-        <v>208</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="T18" t="s">
-        <v>1299</v>
-      </c>
-      <c r="U18" t="s">
-        <v>1428</v>
-      </c>
-      <c r="V18" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>31939</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1336</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I19">
-        <v>108</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="V19" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>31940</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1336</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I20">
-        <v>108</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="T20" t="s">
-        <v>1385</v>
-      </c>
-      <c r="U20" t="s">
-        <v>1428</v>
-      </c>
-      <c r="V20" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>32072</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I21">
-        <v>302</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N21">
-        <v>9</v>
-      </c>
-      <c r="V21" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>32073</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I22">
-        <v>302</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N22">
-        <v>8</v>
-      </c>
-      <c r="T22" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>32074</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I23">
-        <v>303</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>32522</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I24">
-        <v>204</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>32707</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I25">
-        <v>322</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>32708</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I26">
-        <v>608</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>32834</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I27">
-        <v>227</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>32835</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I28">
-        <v>702</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>32836</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I29">
-        <v>701</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>32837</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I30">
-        <v>701</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>32855</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I31">
-        <v>702</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>32856</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I32">
-        <v>702</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32860</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I33">
-        <v>228</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33506</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I34">
-        <v>204</v>
-      </c>
-      <c r="J34">
-        <v>7</v>
-      </c>
-      <c r="K34" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33517</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I35">
-        <v>203</v>
-      </c>
-      <c r="J35">
-        <v>7</v>
-      </c>
-      <c r="K35" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>33518</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I36">
-        <v>201</v>
-      </c>
-      <c r="J36">
-        <v>7</v>
-      </c>
-      <c r="K36" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>33526</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I37">
-        <v>200</v>
-      </c>
-      <c r="J37">
-        <v>7</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>33527</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I38">
-        <v>306</v>
-      </c>
-      <c r="J38">
-        <v>7</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>33528</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I39">
-        <v>312</v>
-      </c>
-      <c r="J39">
-        <v>7</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>33532</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I40">
-        <v>306</v>
-      </c>
-      <c r="J40">
-        <v>7</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>33533</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I41">
-        <v>312</v>
-      </c>
-      <c r="J41">
-        <v>7</v>
-      </c>
-      <c r="K41" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>33536</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I42">
-        <v>201</v>
-      </c>
-      <c r="J42">
-        <v>7</v>
-      </c>
-      <c r="K42" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>33539</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1360</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I43">
-        <v>212</v>
-      </c>
-      <c r="J43">
-        <v>7</v>
-      </c>
-      <c r="K43" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>33540</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1360</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I44">
-        <v>206</v>
-      </c>
-      <c r="J44">
-        <v>7</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>33544</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1363</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1362</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I45">
-        <v>110</v>
-      </c>
-      <c r="J45">
-        <v>7</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>33545</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1363</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1362</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I46">
-        <v>108</v>
-      </c>
-      <c r="J46">
-        <v>7</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>33546</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1370</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I47">
-        <v>211</v>
-      </c>
-      <c r="J47">
-        <v>7</v>
-      </c>
-      <c r="K47" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>33547</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1370</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I48">
-        <v>210</v>
-      </c>
-      <c r="J48">
-        <v>7</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>33548</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1368</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I49">
-        <v>107</v>
-      </c>
-      <c r="J49">
-        <v>7</v>
-      </c>
-      <c r="K49" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>33549</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1368</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I50">
-        <v>100</v>
-      </c>
-      <c r="J50">
-        <v>7</v>
-      </c>
-      <c r="K50" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>33551</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I51">
-        <v>107</v>
-      </c>
-      <c r="J51">
-        <v>7</v>
-      </c>
-      <c r="K51" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>33553</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I52">
-        <v>110</v>
-      </c>
-      <c r="J52">
-        <v>7</v>
-      </c>
-      <c r="K52" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>33554</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I53">
-        <v>108</v>
-      </c>
-      <c r="J53">
-        <v>7</v>
-      </c>
-      <c r="K53" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>33555</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I54">
-        <v>210</v>
-      </c>
-      <c r="J54">
-        <v>7</v>
-      </c>
-      <c r="K54" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>33556</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I55">
-        <v>211</v>
-      </c>
-      <c r="J55">
-        <v>7</v>
-      </c>
-      <c r="K55" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>33558</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I56">
-        <v>100</v>
-      </c>
-      <c r="J56">
-        <v>7</v>
-      </c>
-      <c r="K56" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>33559</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1346</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I57">
-        <v>209</v>
-      </c>
-      <c r="J57">
-        <v>7</v>
-      </c>
-      <c r="K57" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>33560</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1346</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I58">
-        <v>212</v>
-      </c>
-      <c r="J58">
-        <v>7</v>
-      </c>
-      <c r="K58" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>33561</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I59">
-        <v>212</v>
-      </c>
-      <c r="J59">
-        <v>7</v>
-      </c>
-      <c r="K59" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>33644</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I60">
-        <v>210</v>
-      </c>
-      <c r="J60">
-        <v>7</v>
-      </c>
-      <c r="K60" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>33645</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I61">
-        <v>211</v>
-      </c>
-      <c r="J61">
-        <v>7</v>
-      </c>
-      <c r="K61" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>33646</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I62">
-        <v>110</v>
-      </c>
-      <c r="J62">
-        <v>7</v>
-      </c>
-      <c r="K62" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>33647</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I63">
-        <v>108</v>
-      </c>
-      <c r="J63">
-        <v>7</v>
-      </c>
-      <c r="K63" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>33649</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I64">
-        <v>109</v>
-      </c>
-      <c r="J64">
-        <v>7</v>
-      </c>
-      <c r="K64" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>33650</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H65" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I65">
-        <v>100</v>
-      </c>
-      <c r="J65">
-        <v>7</v>
-      </c>
-      <c r="K65" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>33655</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H66" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I66">
-        <v>306</v>
-      </c>
-      <c r="J66">
-        <v>7</v>
-      </c>
-      <c r="K66" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>33656</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H67" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I67">
-        <v>312</v>
-      </c>
-      <c r="J67">
-        <v>7</v>
-      </c>
-      <c r="K67" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>33680</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1352</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I68">
-        <v>206</v>
-      </c>
-      <c r="J68">
-        <v>7</v>
-      </c>
-      <c r="K68" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>33681</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1352</v>
-      </c>
-      <c r="H69" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I69">
-        <v>202</v>
-      </c>
-      <c r="J69">
-        <v>7</v>
-      </c>
-      <c r="K69" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>34734</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H70" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1398</v>
-      </c>
-      <c r="J70">
-        <v>2</v>
-      </c>
-      <c r="K70" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>34744</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H71" t="s">
-        <v>1387</v>
-      </c>
-      <c r="J71">
-        <v>2</v>
-      </c>
-      <c r="K71" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>34745</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H72" t="s">
-        <v>1387</v>
-      </c>
-      <c r="J72">
-        <v>2</v>
-      </c>
-      <c r="K72" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>34747</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H73" t="s">
-        <v>1387</v>
-      </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="M73" s="3" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -26304,181 +27200,354 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>970</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1402</v>
       </c>
-      <c r="G1" t="s">
-        <v>988</v>
-      </c>
       <c r="H1" t="s">
-        <v>971</v>
+        <v>1509</v>
       </c>
       <c r="I1" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1471</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1388</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43471.17021984954</v>
+      </c>
+      <c r="E2" t="s">
         <v>1388</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1403</v>
       </c>
-      <c r="F2" s="1">
-        <v>43348</v>
-      </c>
       <c r="G2" s="1">
-        <v>43638</v>
-      </c>
-      <c r="I2">
+        <v>43348</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43638</v>
+      </c>
+      <c r="K2">
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1404</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43472.17021984954</v>
+      </c>
+      <c r="E3" t="s">
         <v>1405</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1406</v>
       </c>
-      <c r="F3" s="1">
-        <v>43348</v>
-      </c>
       <c r="G3" s="1">
+        <v>43348</v>
+      </c>
+      <c r="H3" s="1">
         <v>43778</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1407</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43473.17021984954</v>
+      </c>
+      <c r="E4" t="s">
         <v>1408</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1406</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>43414</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>43494</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1409</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43474.17021984954</v>
+      </c>
+      <c r="E5" t="s">
         <v>1410</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>1406</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>43495</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>43568</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1411</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43475.17021984954</v>
+      </c>
+      <c r="E6" t="s">
         <v>1412</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>1406</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>43569</v>
       </c>
-      <c r="G6" s="1">
-        <v>43638</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="1">
+        <v>43638</v>
+      </c>
+      <c r="K6">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1413</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43476.17021984954</v>
+      </c>
+      <c r="E7" t="s">
         <v>1413</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1414</v>
       </c>
-      <c r="F7" s="1">
-        <v>43348</v>
-      </c>
       <c r="G7" s="1">
+        <v>43348</v>
+      </c>
+      <c r="H7" s="1">
         <v>43494</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1415</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43477.17021984954</v>
+      </c>
+      <c r="E8" t="s">
         <v>1415</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>1414</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>43495</v>
       </c>
-      <c r="G8" s="1">
-        <v>43638</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="1">
+        <v>43638</v>
+      </c>
+      <c r="K8">
         <v>2018</v>
+      </c>
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="17" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>1472</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="18" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1508</v>
       </c>
     </row>
   </sheetData>
